--- a/Team-Data/2008-09/3-24-2008-09.xlsx
+++ b/Team-Data/2008-09/3-24-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>2.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -759,13 +826,13 @@
         <v>29</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ2" t="n">
         <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
@@ -780,7 +847,7 @@
         <v>22</v>
       </c>
       <c r="AP2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
@@ -789,7 +856,7 @@
         <v>19</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT2" t="n">
         <v>21</v>
@@ -804,7 +871,7 @@
         <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY2" t="n">
         <v>6</v>
@@ -816,7 +883,7 @@
         <v>21</v>
       </c>
       <c r="BB2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F3" t="n">
         <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>0.746</v>
+        <v>0.75</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
@@ -866,28 +933,28 @@
         <v>37.4</v>
       </c>
       <c r="J3" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.486</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
         <v>16.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.396</v>
+        <v>0.394</v>
       </c>
       <c r="O3" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="P3" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.771</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>10.5</v>
@@ -896,10 +963,10 @@
         <v>31.8</v>
       </c>
       <c r="T3" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
         <v>15.7</v>
@@ -914,19 +981,19 @@
         <v>4.7</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA3" t="n">
         <v>22.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.2</v>
+        <v>101</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -950,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
@@ -959,13 +1026,13 @@
         <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AR3" t="n">
         <v>21</v>
@@ -986,10 +1053,10 @@
         <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
@@ -998,7 +1065,7 @@
         <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC3" t="n">
         <v>2</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1150,7 +1217,7 @@
         <v>26</v>
       </c>
       <c r="AR4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS4" t="n">
         <v>26</v>
@@ -1177,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="BA4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
       </c>
       <c r="BC4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -1230,10 +1297,10 @@
         <v>37.8</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
@@ -1242,19 +1309,19 @@
         <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O5" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.793</v>
+        <v>0.792</v>
       </c>
       <c r="R5" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S5" t="n">
         <v>30.6</v>
@@ -1263,10 +1330,10 @@
         <v>42.6</v>
       </c>
       <c r="U5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V5" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="W5" t="n">
         <v>7.4</v>
@@ -1281,16 +1348,16 @@
         <v>21.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.3</v>
+        <v>101.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1320,13 +1387,13 @@
         <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AQ5" t="n">
         <v>7</v>
@@ -1344,10 +1411,10 @@
         <v>15</v>
       </c>
       <c r="AV5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX5" t="n">
         <v>5</v>
@@ -1359,13 +1426,13 @@
         <v>19</v>
       </c>
       <c r="BA5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB5" t="n">
         <v>9</v>
       </c>
       <c r="BC5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -1394,43 +1461,43 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" t="n">
         <v>57</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.826</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K6" t="n">
         <v>0.469</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
         <v>20.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.388</v>
+        <v>0.386</v>
       </c>
       <c r="O6" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P6" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q6" t="n">
         <v>0.752</v>
@@ -1445,10 +1512,10 @@
         <v>41.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
@@ -1460,19 +1527,19 @@
         <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.4</v>
+        <v>100.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1496,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AM6" t="n">
         <v>5</v>
@@ -1505,7 +1572,7 @@
         <v>3</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP6" t="n">
         <v>14</v>
@@ -1532,7 +1599,7 @@
         <v>8</v>
       </c>
       <c r="AX6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
         <v>4</v>
@@ -1541,7 +1608,7 @@
         <v>7</v>
       </c>
       <c r="BA6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1742,7 @@
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL7" t="n">
         <v>14</v>
@@ -1699,10 +1766,10 @@
         <v>15</v>
       </c>
       <c r="AS7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU7" t="n">
         <v>10</v>
@@ -1726,7 +1793,7 @@
         <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC7" t="n">
         <v>13</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -1836,13 +1903,13 @@
         <v>2.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
         <v>8</v>
@@ -1851,7 +1918,7 @@
         <v>27</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
         <v>23</v>
@@ -1866,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1893,7 +1960,7 @@
         <v>26</v>
       </c>
       <c r="AW8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX8" t="n">
         <v>3</v>
@@ -1905,7 +1972,7 @@
         <v>26</v>
       </c>
       <c r="BA8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB8" t="n">
         <v>6</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" t="n">
         <v>34</v>
       </c>
       <c r="F9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" t="n">
-        <v>0.486</v>
+        <v>0.493</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
       </c>
       <c r="I9" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J9" t="n">
-        <v>80.09999999999999</v>
+        <v>80</v>
       </c>
       <c r="K9" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L9" t="n">
         <v>4.5</v>
@@ -1970,13 +2037,13 @@
         <v>12.9</v>
       </c>
       <c r="N9" t="n">
-        <v>0.346</v>
+        <v>0.347</v>
       </c>
       <c r="O9" t="n">
-        <v>16.8</v>
+        <v>17</v>
       </c>
       <c r="P9" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q9" t="n">
         <v>0.753</v>
@@ -1988,10 +2055,10 @@
         <v>29.7</v>
       </c>
       <c r="T9" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U9" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V9" t="n">
         <v>11.8</v>
@@ -2015,10 +2082,10 @@
         <v>94.09999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AE9" t="n">
         <v>16</v>
@@ -2033,7 +2100,7 @@
         <v>3</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
         <v>18</v>
@@ -2081,7 +2148,7 @@
         <v>20</v>
       </c>
       <c r="AY9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ9" t="n">
         <v>18</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -2122,43 +2189,43 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" t="n">
         <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" t="n">
-        <v>0.352</v>
+        <v>0.357</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="J10" t="n">
-        <v>85.90000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L10" t="n">
         <v>6.6</v>
       </c>
       <c r="M10" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.37</v>
+        <v>0.369</v>
       </c>
       <c r="O10" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="P10" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="Q10" t="n">
         <v>0.786</v>
@@ -2167,22 +2234,22 @@
         <v>11.6</v>
       </c>
       <c r="S10" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T10" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U10" t="n">
         <v>21.1</v>
       </c>
       <c r="V10" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W10" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X10" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y10" t="n">
         <v>5</v>
@@ -2194,25 +2261,25 @@
         <v>23.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.5</v>
+        <v>108.6</v>
       </c>
       <c r="AC10" t="n">
         <v>-3.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2221,7 +2288,7 @@
         <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL10" t="n">
         <v>16</v>
@@ -2239,13 +2306,13 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
         <v>10</v>
@@ -2254,7 +2321,7 @@
         <v>14</v>
       </c>
       <c r="AV10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2263,10 +2330,10 @@
         <v>1</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA10" t="n">
         <v>3</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -2304,28 +2371,28 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" t="n">
         <v>47</v>
       </c>
       <c r="F11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.644</v>
+        <v>0.653</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J11" t="n">
-        <v>79.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.45</v>
+        <v>0.452</v>
       </c>
       <c r="L11" t="n">
         <v>7.6</v>
@@ -2334,31 +2401,31 @@
         <v>20.3</v>
       </c>
       <c r="N11" t="n">
-        <v>0.375</v>
+        <v>0.374</v>
       </c>
       <c r="O11" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P11" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="Q11" t="n">
         <v>0.806</v>
       </c>
       <c r="R11" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S11" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T11" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U11" t="n">
         <v>20.4</v>
       </c>
       <c r="V11" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W11" t="n">
         <v>6.8</v>
@@ -2373,13 +2440,13 @@
         <v>18.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="AD11" t="n">
         <v>1</v>
@@ -2388,10 +2455,10 @@
         <v>5</v>
       </c>
       <c r="AF11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH11" t="n">
         <v>18</v>
@@ -2415,7 +2482,7 @@
         <v>10</v>
       </c>
       <c r="AO11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
@@ -2427,16 +2494,16 @@
         <v>23</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
         <v>19</v>
       </c>
       <c r="AV11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW11" t="n">
         <v>25</v>
@@ -2445,7 +2512,7 @@
         <v>25</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
@@ -2454,10 +2521,10 @@
         <v>15</v>
       </c>
       <c r="BB11" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2576,7 +2643,7 @@
         <v>21</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2588,7 +2655,7 @@
         <v>21</v>
       </c>
       <c r="AL12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM12" t="n">
         <v>3</v>
@@ -2618,7 +2685,7 @@
         <v>6</v>
       </c>
       <c r="AV12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW12" t="n">
         <v>21</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-8.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2758,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI13" t="n">
         <v>27</v>
@@ -2791,7 +2858,7 @@
         <v>16</v>
       </c>
       <c r="AS13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT13" t="n">
         <v>24</v>
@@ -2800,7 +2867,7 @@
         <v>11</v>
       </c>
       <c r="AV13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW13" t="n">
         <v>23</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -2865,13 +2932,13 @@
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="J14" t="n">
-        <v>85.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.479</v>
+        <v>0.478</v>
       </c>
       <c r="L14" t="n">
         <v>6.9</v>
@@ -2880,7 +2947,7 @@
         <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O14" t="n">
         <v>19.8</v>
@@ -2889,28 +2956,28 @@
         <v>25.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R14" t="n">
         <v>12.5</v>
       </c>
       <c r="S14" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T14" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U14" t="n">
         <v>23.5</v>
       </c>
       <c r="V14" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W14" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
         <v>4.7</v>
@@ -2922,13 +2989,13 @@
         <v>22.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>108.4</v>
+        <v>108.2</v>
       </c>
       <c r="AC14" t="n">
         <v>7.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2958,10 +3025,10 @@
         <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>8</v>
@@ -2973,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2985,16 +3052,16 @@
         <v>11</v>
       </c>
       <c r="AW14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX14" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AY14" t="n">
         <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA14" t="n">
         <v>8</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3213,7 @@
         <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -3322,7 +3389,7 @@
         <v>10</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
         <v>27</v>
@@ -3364,7 +3431,7 @@
         <v>24</v>
       </c>
       <c r="BB16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E17" t="n">
         <v>31</v>
       </c>
       <c r="F17" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G17" t="n">
-        <v>0.443</v>
+        <v>0.437</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3426,67 +3493,67 @@
         <v>16.7</v>
       </c>
       <c r="N17" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O17" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="P17" t="n">
         <v>25.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R17" t="n">
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U17" t="n">
         <v>21.5</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X17" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y17" t="n">
         <v>4.7</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.9</v>
+        <v>-1.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AE17" t="n">
         <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
         <v>19</v>
@@ -3510,7 +3577,7 @@
         <v>6</v>
       </c>
       <c r="AP17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
@@ -3519,25 +3586,25 @@
         <v>5</v>
       </c>
       <c r="AS17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU17" t="n">
         <v>9</v>
       </c>
       <c r="AV17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW17" t="n">
         <v>13</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>12</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ17" t="n">
         <v>30</v>
@@ -3546,7 +3613,7 @@
         <v>4</v>
       </c>
       <c r="BB17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC17" t="n">
         <v>17</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -3656,19 +3723,19 @@
         <v>-4.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
       </c>
       <c r="AF18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
         <v>16</v>
@@ -3680,7 +3747,7 @@
         <v>29</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM18" t="n">
         <v>15</v>
@@ -3689,13 +3756,13 @@
         <v>24</v>
       </c>
       <c r="AO18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
@@ -3710,7 +3777,7 @@
         <v>21</v>
       </c>
       <c r="AV18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW18" t="n">
         <v>27</v>
@@ -3728,7 +3795,7 @@
         <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -3844,7 +3911,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
         <v>20</v>
@@ -3862,19 +3929,19 @@
         <v>22</v>
       </c>
       <c r="AL19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM19" t="n">
         <v>4</v>
       </c>
       <c r="AN19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
         <v>12</v>
@@ -3898,7 +3965,7 @@
         <v>22</v>
       </c>
       <c r="AX19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY19" t="n">
         <v>15</v>
@@ -3910,7 +3977,7 @@
         <v>18</v>
       </c>
       <c r="BB19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>2.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
         <v>8</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -4306,22 +4373,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" t="n">
         <v>20</v>
       </c>
       <c r="F22" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22" t="n">
-        <v>0.282</v>
+        <v>0.286</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J22" t="n">
         <v>81.90000000000001</v>
@@ -4333,31 +4400,31 @@
         <v>4.1</v>
       </c>
       <c r="M22" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.349</v>
+        <v>0.353</v>
       </c>
       <c r="O22" t="n">
         <v>20</v>
       </c>
       <c r="P22" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.787</v>
+        <v>0.786</v>
       </c>
       <c r="R22" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S22" t="n">
         <v>30.5</v>
       </c>
       <c r="T22" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U22" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V22" t="n">
         <v>16.6</v>
@@ -4369,7 +4436,7 @@
         <v>4.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z22" t="n">
         <v>20.6</v>
@@ -4378,13 +4445,13 @@
         <v>20.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>-5.5</v>
+        <v>-5.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>25</v>
@@ -4396,7 +4463,7 @@
         <v>25</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AI22" t="n">
         <v>15</v>
@@ -4405,7 +4472,7 @@
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4414,7 +4481,7 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO22" t="n">
         <v>7</v>
@@ -4423,7 +4490,7 @@
         <v>11</v>
       </c>
       <c r="AQ22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR22" t="n">
         <v>4</v>
@@ -4441,7 +4508,7 @@
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX22" t="n">
         <v>22</v>
@@ -4450,10 +4517,10 @@
         <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB22" t="n">
         <v>23</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -4587,7 +4654,7 @@
         <v>26</v>
       </c>
       <c r="AK23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4626,7 +4693,7 @@
         <v>19</v>
       </c>
       <c r="AX23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY23" t="n">
         <v>2</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>0.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4763,7 +4830,7 @@
         <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ24" t="n">
         <v>16</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -5034,55 +5101,55 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E26" t="n">
         <v>44</v>
       </c>
       <c r="F26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.629</v>
+        <v>0.62</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J26" t="n">
         <v>79.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.461</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N26" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O26" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P26" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R26" t="n">
         <v>12.9</v>
       </c>
       <c r="S26" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="T26" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U26" t="n">
         <v>20.2</v>
@@ -5103,37 +5170,37 @@
         <v>20.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.2</v>
+        <v>98.8</v>
       </c>
       <c r="AC26" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AD26" t="n">
         <v>4</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>12</v>
       </c>
       <c r="AE26" t="n">
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ26" t="n">
         <v>22</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AL26" t="n">
         <v>9</v>
@@ -5142,13 +5209,13 @@
         <v>11</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AQ26" t="n">
         <v>15</v>
@@ -5163,7 +5230,7 @@
         <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV26" t="n">
         <v>6</v>
@@ -5178,16 +5245,16 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
         <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5373,7 @@
         <v>30</v>
       </c>
       <c r="AH27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI27" t="n">
         <v>23</v>
@@ -5315,7 +5382,7 @@
         <v>13</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL27" t="n">
         <v>11</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F28" t="n">
         <v>24</v>
       </c>
       <c r="G28" t="n">
-        <v>0.657</v>
+        <v>0.652</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J28" t="n">
         <v>79.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="L28" t="n">
         <v>7.7</v>
@@ -5431,25 +5498,25 @@
         <v>0.392</v>
       </c>
       <c r="O28" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="P28" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.762</v>
+        <v>0.763</v>
       </c>
       <c r="R28" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T28" t="n">
         <v>41.1</v>
       </c>
       <c r="U28" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V28" t="n">
         <v>12</v>
@@ -5470,13 +5537,13 @@
         <v>18.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5485,13 +5552,13 @@
         <v>5</v>
       </c>
       <c r="AG28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH28" t="n">
         <v>3</v>
       </c>
       <c r="AI28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ28" t="n">
         <v>20</v>
@@ -5521,7 +5588,7 @@
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="n">
         <v>19</v>
@@ -5551,7 +5618,7 @@
         <v>24</v>
       </c>
       <c r="BC28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -5673,7 +5740,7 @@
         <v>20</v>
       </c>
       <c r="AI29" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ29" t="n">
         <v>17</v>
@@ -5691,7 +5758,7 @@
         <v>12</v>
       </c>
       <c r="AO29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP29" t="n">
         <v>26</v>
@@ -5715,10 +5782,10 @@
         <v>10</v>
       </c>
       <c r="AW29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="n">
         <v>26</v>
       </c>
       <c r="G30" t="n">
-        <v>0.629</v>
+        <v>0.623</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5780,7 +5847,7 @@
         <v>38.5</v>
       </c>
       <c r="J30" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K30" t="n">
         <v>0.477</v>
@@ -5792,22 +5859,22 @@
         <v>13.7</v>
       </c>
       <c r="N30" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O30" t="n">
         <v>21.5</v>
       </c>
       <c r="P30" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="Q30" t="n">
         <v>0.773</v>
       </c>
       <c r="R30" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="S30" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="T30" t="n">
         <v>41.2</v>
@@ -5816,37 +5883,37 @@
         <v>24.8</v>
       </c>
       <c r="V30" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W30" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X30" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y30" t="n">
         <v>5</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="AC30" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AE30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF30" t="n">
         <v>8</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>7</v>
       </c>
       <c r="AG30" t="n">
         <v>9</v>
@@ -5882,10 +5949,10 @@
         <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT30" t="n">
         <v>17</v>
@@ -5894,28 +5961,28 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
         <v>1</v>
       </c>
       <c r="AX30" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB30" t="n">
         <v>7</v>
       </c>
       <c r="BC30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-8</v>
       </c>
       <c r="AD31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6073,7 +6140,7 @@
         <v>22</v>
       </c>
       <c r="AU31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
@@ -6085,7 +6152,7 @@
         <v>26</v>
       </c>
       <c r="AY31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ31" t="n">
         <v>11</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-24-2008-09</t>
+          <t>2009-03-24</t>
         </is>
       </c>
     </row>
